--- a/src/main/resources/reportSales.xlsx
+++ b/src/main/resources/reportSales.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Good id</t>
   </si>
@@ -21,9 +21,6 @@
     <t>Create date</t>
   </si>
   <si>
-    <t>2003-01-07 00:00:00.0</t>
-  </si>
-  <si>
     <t>2003-01-23 00:00:00.0</t>
   </si>
   <si>
@@ -48,22 +45,16 @@
     <t>2003-01-29 00:00:00.0</t>
   </si>
   <si>
-    <t>2003-01-05 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2003-01-12 00:00:00.0</t>
-  </si>
-  <si>
     <t>2003-01-15 00:00:00.0</t>
   </si>
   <si>
     <t>2023-12-10 19:58:53.048</t>
   </si>
   <si>
-    <t>2023-12-10 20:12:16.594</t>
-  </si>
-  <si>
     <t>2023-12-10 20:14:38.595</t>
+  </si>
+  <si>
+    <t>2023-12-14 12:11:44.128</t>
   </si>
 </sst>
 </file>
@@ -131,13 +122,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -148,7 +139,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -159,7 +150,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -170,7 +161,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -181,7 +172,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
@@ -192,7 +183,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
@@ -203,7 +194,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
@@ -214,23 +205,23 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -241,68 +232,24 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
         <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
